--- a/Completed Projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/Variation Order/Summary of VOs.xlsx
+++ b/Completed Projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/Variation Order/Summary of VOs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8638C5E2-804A-4679-9807-2194C86F163A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519498FF-5842-401C-BD20-391E2C6BB093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,16 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Sr #</t>
   </si>
@@ -71,6 +70,12 @@
   </si>
   <si>
     <t>Variatin of Fire Flexible Pipe &amp; Sprinklers</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>Part of BOQ</t>
   </si>
 </sst>
 </file>
@@ -238,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -294,7 +299,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -404,7 +408,7 @@
       <sheetData sheetId="0">
         <row r="26">
           <cell r="K26">
-            <v>107824.65000000001</v>
+            <v>918585.77999999991</v>
           </cell>
         </row>
       </sheetData>
@@ -414,28 +418,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="26">
-          <cell r="K26">
-            <v>296986.38</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -744,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:E27"/>
+  <dimension ref="A7:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -758,34 +740,34 @@
     <col min="4" max="16384" width="30.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="22" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="10" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>0</v>
       </c>
@@ -795,13 +777,17 @@
       <c r="C14" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
@@ -812,6 +798,9 @@
         <f>[1]Sheet1!$I$26</f>
         <v>119325</v>
       </c>
+      <c r="D16" s="16">
+        <v>105920</v>
+      </c>
     </row>
     <row r="17" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -824,17 +813,23 @@
         <f>[2]Sheet1!$I$26</f>
         <v>330240</v>
       </c>
+      <c r="D17" s="16">
+        <v>310783</v>
+      </c>
     </row>
     <row r="18" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="16">
-        <f>[3]Sheet1!$J$33</f>
-        <v>320045.23319999996</v>
+        <f>[4]Sheet1!$K$26</f>
+        <v>918585.77999999991</v>
+      </c>
+      <c r="D18" s="16">
+        <v>884218</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,64 +837,65 @@
         <v>2</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="16">
-        <f>[4]Sheet1!$K$26</f>
-        <v>107824.65000000001</v>
+        <f>[3]Sheet1!$J$33</f>
+        <v>320045.23319999996</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="A20" s="11"/>
       <c r="B20" s="15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C20" s="16">
-        <f>[5]Sheet1!$K$26</f>
-        <v>296986.38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="16">
-        <f>[6]Sheet1!$I$29</f>
+        <f>[5]Sheet1!$I$29</f>
         <v>161477.03999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19" t="s">
+      <c r="D20" s="16">
+        <v>54860</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="20">
-        <f>SUM(C16:C22)</f>
-        <v>1335898.3032</v>
-      </c>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="26" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="9"/>
+      <c r="C22" s="20">
+        <f>SUM(C16:C21)</f>
+        <v>1849673.0531999997</v>
+      </c>
+      <c r="D22" s="20">
+        <f>SUM(D16:D21)</f>
+        <v>1355781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
